--- a/biology/Biochimie/Organisme_microaérophile/Organisme_microaérophile.xlsx
+++ b/biology/Biochimie/Organisme_microaérophile/Organisme_microaérophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Organisme_microa%C3%A9rophile</t>
+          <t>Organisme_microaérophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un organisme microaérophile est un organisme qui, pour survivre, a besoin d'oxygène à des concentrations inférieures à celle présente dans l'atmosphère (c'est-à-dire inférieure à 21 %, généralement 2 à 10 %)[1],[2]. La plupart des organismes microaérophiles sont également capnophiles, nécessitant une concentration élevée en dioxyde de carbone (par exemple de l'ordre de 10 % pour Campylobacter spp.)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un organisme microaérophile est un organisme qui, pour survivre, a besoin d'oxygène à des concentrations inférieures à celle présente dans l'atmosphère (c'est-à-dire inférieure à 21 %, généralement 2 à 10 %),. La plupart des organismes microaérophiles sont également capnophiles, nécessitant une concentration élevée en dioxyde de carbone (par exemple de l'ordre de 10 % pour Campylobacter spp.).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Organisme_microa%C3%A9rophile</t>
+          <t>Organisme_microaérophile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les organismes microaérophiles peuvent être cultivés en introduisant une bougie dans un récipient fermé hermétiquement. La flamme de la bougie va consommer l'oxygène présent jusqu'à son extension, créant ainsi une atmosphère riche en dioxyde de carbone et pauvre en oxygène[4]. D'autres méthodes peuvent également être employées pour créer un tel environnement comme l'utilisation de kits[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les organismes microaérophiles peuvent être cultivés en introduisant une bougie dans un récipient fermé hermétiquement. La flamme de la bougie va consommer l'oxygène présent jusqu'à son extension, créant ainsi une atmosphère riche en dioxyde de carbone et pauvre en oxygène. D'autres méthodes peuvent également être employées pour créer un tel environnement comme l'utilisation de kits.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Organisme_microa%C3%A9rophile</t>
+          <t>Organisme_microaérophile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Campylobacter spp. sont microaérophiles[3],[5].
-Helicobacter pylori, impliquée dans les ulcères gastro-duodénaux et dans certains types de gastrites[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Campylobacter spp. sont microaérophiles,.
+Helicobacter pylori, impliquée dans les ulcères gastro-duodénaux et dans certains types de gastrites.</t>
         </is>
       </c>
     </row>
